--- a/Proposal's Data Sets/GLB.Ts+dSST.xlsx
+++ b/Proposal's Data Sets/GLB.Ts+dSST.xlsx
@@ -220,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +400,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -561,8 +567,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -908,10 +915,13 @@
   <dimension ref="A1:S145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="19" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -958,22 +968,22 @@
       <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1017,22 +1027,22 @@
       <c r="M3">
         <v>-0.16</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>-0.15</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>-0.1</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>-0.15</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>-0.18</v>
       </c>
     </row>
@@ -1076,22 +1086,22 @@
       <c r="M4">
         <v>-0.06</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>-0.08</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>-0.16</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>0.06</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>-0.06</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>-0.17</v>
       </c>
     </row>
@@ -1135,22 +1145,22 @@
       <c r="M5">
         <v>-0.36</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>-0.1</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>-0.08</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>0.09</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>-0.08</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>-0.15</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>-0.17</v>
       </c>
     </row>
@@ -1194,22 +1204,22 @@
       <c r="M6">
         <v>-0.11</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>-0.17</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>-0.19</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>-0.33</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>-0.15</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>-0.09</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="1">
         <v>-0.19</v>
       </c>
     </row>
@@ -1253,22 +1263,22 @@
       <c r="M7">
         <v>-0.3</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>-0.26</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>-0.1</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>-0.36</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>-0.31</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>-0.28000000000000003</v>
       </c>
     </row>
@@ -1312,22 +1322,22 @@
       <c r="M8">
         <v>-0.1</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>-0.33</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>-0.34</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>-0.4</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>-0.37</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>-0.36</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="1">
         <v>-0.25</v>
       </c>
     </row>
@@ -1371,22 +1381,22 @@
       <c r="M9">
         <v>-0.25</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>-0.31</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>-0.3</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>-0.34</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <v>-0.31</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="1">
         <v>-0.27</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="1">
         <v>-0.26</v>
       </c>
     </row>
@@ -1430,22 +1440,22 @@
       <c r="M10">
         <v>-0.32</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>-0.36</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>-0.35</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>-0.51</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <v>-0.33</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="1">
         <v>-0.28999999999999998</v>
       </c>
     </row>
@@ -1489,22 +1499,22 @@
       <c r="M11">
         <v>-0.03</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>-0.17</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>-0.19</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <v>-0.34</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <v>-0.27</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="1">
         <v>-0.02</v>
       </c>
     </row>
@@ -1548,22 +1558,22 @@
       <c r="M12">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>-0.1</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <v>-0.08</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <v>0.02</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="1">
         <v>0.06</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="1">
         <v>-0.12</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="1">
         <v>-0.27</v>
       </c>
     </row>
@@ -1607,22 +1617,22 @@
       <c r="M13">
         <v>-0.3</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>-0.34</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <v>-0.34</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <v>-0.38</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
         <v>-0.35</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>-0.3</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <v>-0.34</v>
       </c>
     </row>
@@ -1666,22 +1676,22 @@
       <c r="M14">
         <v>-0.04</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>-0.22</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="1">
         <v>-0.24</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="1">
         <v>-0.37</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="1">
         <v>-0.2</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="1">
         <v>-0.18</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="1">
         <v>-0.22</v>
       </c>
     </row>
@@ -1725,22 +1735,22 @@
       <c r="M15">
         <v>-0.38</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>-0.27</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <v>-0.24</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="1">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <v>-0.32</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="1">
         <v>-0.27</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="1">
         <v>-0.24</v>
       </c>
     </row>
@@ -1784,22 +1794,22 @@
       <c r="M16">
         <v>-0.31</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>-0.31</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <v>-0.32</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="1">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <v>-0.27</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1">
         <v>-0.21</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="1">
         <v>-0.19</v>
       </c>
     </row>
@@ -1843,22 +1853,22 @@
       <c r="M17">
         <v>-0.2</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>-0.3</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <v>-0.31</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="1">
         <v>-0.37</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <v>-0.32</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="1">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="1">
         <v>-0.25</v>
       </c>
     </row>
@@ -1902,22 +1912,22 @@
       <c r="M18">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <v>-0.22</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <v>-0.23</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="1">
         <v>-0.34</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="1">
         <v>-0.27</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="1">
         <v>-0.18</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="1">
         <v>-0.13</v>
       </c>
     </row>
@@ -1961,22 +1971,22 @@
       <c r="M19">
         <v>-0.04</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>-0.11</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <v>-0.12</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="1">
         <v>-0.16</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="1">
         <v>-0.24</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="1">
         <v>-0.06</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="1">
         <v>-0.01</v>
       </c>
     </row>
@@ -2020,22 +2030,22 @@
       <c r="M20">
         <v>-0.2</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <v>-0.11</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <v>-0.09</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <v>-0.12</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="1">
         <v>-0.05</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="1">
         <v>-0.08</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="1">
         <v>-0.13</v>
       </c>
     </row>
@@ -2079,22 +2089,22 @@
       <c r="M21">
         <v>-0.23</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <v>-0.27</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <v>-0.27</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <v>-0.17</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="1">
         <v>-0.37</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1">
         <v>-0.22</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="1">
         <v>-0.31</v>
       </c>
     </row>
@@ -2138,22 +2148,22 @@
       <c r="M22">
         <v>-0.26</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <v>-0.17</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <v>-0.17</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="1">
         <v>-0.26</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="1">
         <v>-0.26</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="1">
         <v>-0.18</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="1">
         <v>0.02</v>
       </c>
     </row>
@@ -2197,22 +2207,22 @@
       <c r="M23">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
         <v>-0.08</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="1">
         <v>-0.1</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="1">
         <v>-0.22</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="1">
         <v>-0.06</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="1">
         <v>-0.1</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="1">
         <v>-0.01</v>
       </c>
     </row>
@@ -2256,22 +2266,22 @@
       <c r="M24">
         <v>-0.27</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
         <v>-0.16</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="1">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="1">
         <v>-0.13</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="1">
         <v>-0.04</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="1">
         <v>-0.16</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="1">
         <v>-0.23</v>
       </c>
     </row>
@@ -2315,22 +2325,22 @@
       <c r="M25">
         <v>-0.41</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="1">
         <v>-0.27</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="1">
         <v>-0.17</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="1">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="1">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="1">
         <v>-0.31</v>
       </c>
     </row>
@@ -2374,22 +2384,22 @@
       <c r="M26">
         <v>-0.51</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <v>-0.37</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <v>-0.36</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="1">
         <v>-0.23</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="1">
         <v>-0.34</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="1">
         <v>-0.41</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="1">
         <v>-0.47</v>
       </c>
     </row>
@@ -2433,22 +2443,22 @@
       <c r="M27">
         <v>-0.33</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <v>-0.47</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="1">
         <v>-0.48</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="1">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="1">
         <v>-0.5</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="1">
         <v>-0.49</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="1">
         <v>-0.37</v>
       </c>
     </row>
@@ -2492,22 +2502,22 @@
       <c r="M28">
         <v>-0.13</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <v>-0.26</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="1">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="1">
         <v>-0.42</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="1">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="1">
         <v>-0.25</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="1">
         <v>-0.17</v>
       </c>
     </row>
@@ -2551,22 +2561,22 @@
       <c r="M29">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="1">
         <v>-0.22</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="1">
         <v>-0.22</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="1">
         <v>-0.23</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="1">
         <v>-0.16</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="1">
         <v>-0.2</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="1">
         <v>-0.28000000000000003</v>
       </c>
     </row>
@@ -2610,22 +2620,22 @@
       <c r="M30">
         <v>-0.46</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <v>-0.38</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>-0.36</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="1">
         <v>-0.36</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="1">
         <v>-0.36</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="1">
         <v>-0.37</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="1">
         <v>-0.34</v>
       </c>
     </row>
@@ -2669,22 +2679,22 @@
       <c r="M31">
         <v>-0.48</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>-0.42</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="1">
         <v>-0.42</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="1">
         <v>-0.41</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="1">
         <v>-0.45</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="1">
         <v>-0.4</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="1">
         <v>-0.43</v>
       </c>
     </row>
@@ -2728,22 +2738,22 @@
       <c r="M32">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="1">
         <v>-0.48</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="1">
         <v>-0.47</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="1">
         <v>-0.43</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="1">
         <v>-0.36</v>
       </c>
     </row>
@@ -2787,22 +2797,22 @@
       <c r="M33">
         <v>-0.66</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="1">
         <v>-0.43</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="1">
         <v>-0.42</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="1">
         <v>-0.46</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="1">
         <v>-0.42</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="1">
         <v>-0.36</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="1">
         <v>-0.45</v>
       </c>
     </row>
@@ -2846,22 +2856,22 @@
       <c r="M34">
         <v>-0.21</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="1">
         <v>-0.44</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="1">
         <v>-0.47</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="1">
         <v>-0.62</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="1">
         <v>-0.45</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="1">
         <v>-0.28999999999999998</v>
       </c>
     </row>
@@ -2905,22 +2915,22 @@
       <c r="M35">
         <v>-0.42</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="1">
         <v>-0.36</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="1">
         <v>-0.34</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="1">
         <v>-0.19</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="1">
         <v>-0.25</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="1">
         <v>-0.4</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="1">
         <v>-0.51</v>
       </c>
     </row>
@@ -2964,22 +2974,22 @@
       <c r="M36">
         <v>-0.02</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="1">
         <v>-0.34</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="1">
         <v>-0.38</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="1">
         <v>-0.42</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="1">
         <v>-0.41</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="1">
         <v>-0.38</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="1">
         <v>-0.28999999999999998</v>
       </c>
     </row>
@@ -3023,22 +3033,22 @@
       <c r="M37">
         <v>-0.03</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="1">
         <v>-0.15</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="1">
         <v>-0.15</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="1">
         <v>-0.02</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="1">
         <v>-0.24</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="1">
         <v>-0.21</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="1">
         <v>-0.11</v>
       </c>
     </row>
@@ -3082,22 +3092,22 @@
       <c r="M38">
         <v>-0.22</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="1">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="1">
         <v>-0.12</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="1">
         <v>-0.09</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="1">
         <v>-0.03</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="1">
         <v>-0.19</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="1">
         <v>-0.19</v>
       </c>
     </row>
@@ -3141,22 +3151,22 @@
       <c r="M39">
         <v>-0.81</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="1">
         <v>-0.36</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="1">
         <v>-0.31</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="1">
         <v>-0.16</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="1">
         <v>-0.31</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="1">
         <v>-0.38</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="1">
         <v>-0.38</v>
       </c>
     </row>
@@ -3200,22 +3210,22 @@
       <c r="M40">
         <v>-0.67</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="1">
         <v>-0.46</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="1">
         <v>-0.47</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="1">
         <v>-0.67</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="1">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="1">
         <v>-0.3</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="1">
         <v>-0.33</v>
       </c>
     </row>
@@ -3259,22 +3269,22 @@
       <c r="M41">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="1">
         <v>-0.3</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="1">
         <v>-0.33</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="1">
         <v>-0.49</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="1">
         <v>-0.37</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="1">
         <v>-0.33</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="1">
         <v>-0.12</v>
       </c>
     </row>
@@ -3318,22 +3328,22 @@
       <c r="M42">
         <v>-0.42</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="1">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="1">
         <v>-0.27</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="1">
         <v>-0.24</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="1">
         <v>-0.2</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="1">
         <v>-0.33</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="1">
         <v>-0.28999999999999998</v>
       </c>
     </row>
@@ -3377,22 +3387,22 @@
       <c r="M43">
         <v>-0.46</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="1">
         <v>-0.27</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="1">
         <v>-0.27</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="1">
         <v>-0.31</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="1">
         <v>-0.21</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="1">
         <v>-0.31</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="1">
         <v>-0.25</v>
       </c>
     </row>
@@ -3436,22 +3446,22 @@
       <c r="M44">
         <v>-0.18</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="1">
         <v>-0.19</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="1">
         <v>-0.21</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="1">
         <v>-0.23</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="1">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="1">
         <v>-0.23</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="1">
         <v>-0.12</v>
       </c>
     </row>
@@ -3495,22 +3505,22 @@
       <c r="M45">
         <v>-0.19</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="1">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="1">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="1">
         <v>-0.32</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="1">
         <v>-0.24</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="1">
         <v>-0.3</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="1">
         <v>-0.28000000000000003</v>
       </c>
     </row>
@@ -3554,22 +3564,22 @@
       <c r="M46">
         <v>-0.05</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="1">
         <v>-0.27</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="1">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="1">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="1">
         <v>-0.36</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="1">
         <v>-0.31</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="1">
         <v>-0.16</v>
       </c>
     </row>
@@ -3613,22 +3623,22 @@
       <c r="M47">
         <v>-0.43</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="1">
         <v>-0.27</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="1">
         <v>-0.24</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="1">
         <v>-0.17</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="1">
         <v>-0.19</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="1">
         <v>-0.3</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="1">
         <v>-0.28999999999999998</v>
       </c>
     </row>
@@ -3672,22 +3682,22 @@
       <c r="M48">
         <v>0.06</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="1">
         <v>-0.22</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="1">
         <v>-0.26</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="1">
         <v>-0.41</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="1">
         <v>-0.27</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="1">
         <v>-0.26</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="1">
         <v>-0.11</v>
       </c>
     </row>
@@ -3731,22 +3741,22 @@
       <c r="M49">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="1">
         <v>-0.11</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="1">
         <v>-0.08</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="1">
         <v>-0.08</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="1">
         <v>-0.22</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="1">
         <v>-0.11</v>
       </c>
     </row>
@@ -3790,22 +3800,22 @@
       <c r="M50">
         <v>-0.33</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="1">
         <v>-0.22</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="1">
         <v>-0.21</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="1">
         <v>-0.25</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="1">
         <v>-0.31</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="1">
         <v>-0.23</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="1">
         <v>-0.06</v>
       </c>
     </row>
@@ -3849,22 +3859,22 @@
       <c r="M51">
         <v>-0.17</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="1">
         <v>-0.2</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="1">
         <v>-0.22</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="1">
         <v>-0.15</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="1">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="1">
         <v>-0.27</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="1">
         <v>-0.17</v>
       </c>
     </row>
@@ -3908,22 +3918,22 @@
       <c r="M52">
         <v>-0.54</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="1">
         <v>-0.36</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="1">
         <v>-0.33</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="1">
         <v>-0.4</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="1">
         <v>-0.37</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="1">
         <v>-0.38</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="1">
         <v>-0.17</v>
       </c>
     </row>
@@ -3967,22 +3977,22 @@
       <c r="M53">
         <v>-0.05</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="1">
         <v>-0.16</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="1">
         <v>-0.2</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="1">
         <v>-0.37</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="1">
         <v>-0.2</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="1">
         <v>-0.19</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="1">
         <v>-0.03</v>
       </c>
     </row>
@@ -4026,22 +4036,22 @@
       <c r="M54">
         <v>-0.05</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="1">
         <v>-0.09</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="1">
         <v>-0.09</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="1">
         <v>-0.12</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="1">
         <v>-0.17</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="1">
         <v>-0.05</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="1">
         <v>-0.02</v>
       </c>
     </row>
@@ -4085,22 +4095,22 @@
       <c r="M55">
         <v>-0.26</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="1">
         <v>-0.16</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="1">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="1">
         <v>-0.02</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="1">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="1">
         <v>-0.25</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="1">
         <v>-0.15</v>
       </c>
     </row>
@@ -4144,22 +4154,22 @@
       <c r="M56">
         <v>-0.44</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="1">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="1">
         <v>-0.27</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="1">
         <v>-0.26</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="1">
         <v>-0.27</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="1">
         <v>-0.26</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="1">
         <v>-0.28000000000000003</v>
       </c>
     </row>
@@ -4203,22 +4213,22 @@
       <c r="M57">
         <v>-0.02</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="1">
         <v>-0.12</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="1">
         <v>-0.16</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="1">
         <v>-0.22</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" s="1">
         <v>-0.23</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="1">
         <v>-0.12</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="1">
         <v>-0.06</v>
       </c>
     </row>
@@ -4262,22 +4272,22 @@
       <c r="M58">
         <v>-0.17</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="1">
         <v>-0.2</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="1">
         <v>-0.18</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" s="1">
         <v>-0.26</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="1">
         <v>-0.23</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="1">
         <v>-0.17</v>
       </c>
     </row>
@@ -4321,22 +4331,22 @@
       <c r="M59">
         <v>-0.01</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="1">
         <v>-0.15</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="1">
         <v>-0.16</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="1">
         <v>-0.27</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" s="1">
         <v>-0.19</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="1">
         <v>-0.15</v>
       </c>
-      <c r="S59">
+      <c r="S59" s="1">
         <v>-0.03</v>
       </c>
     </row>
@@ -4380,22 +4390,22 @@
       <c r="M60">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="1">
         <v>-0.03</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="1">
         <v>-0.02</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="1">
         <v>-0.01</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" s="1">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="1">
         <v>-0.02</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="1">
         <v>0.09</v>
       </c>
     </row>
@@ -4439,22 +4449,22 @@
       <c r="M61">
         <v>-0.13</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="1">
         <v>0</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="1">
         <v>0</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="1">
         <v>0.01</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" s="1">
         <v>0.02</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="1">
         <v>-0.11</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -4498,22 +4508,22 @@
       <c r="M62">
         <v>0.44</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="1">
         <v>-0.01</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="1">
         <v>-0.06</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="1">
         <v>-0.08</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" s="1">
         <v>-0.1</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="1">
         <v>-0.06</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="1">
         <v>-0.01</v>
       </c>
     </row>
@@ -4557,22 +4567,22 @@
       <c r="M63">
         <v>0.32</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="1">
         <v>0.13</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P63">
+      <c r="P63" s="1">
         <v>0.17</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" s="1">
         <v>0.13</v>
       </c>
-      <c r="R63">
+      <c r="R63" s="1">
         <v>0.1</v>
       </c>
-      <c r="S63">
+      <c r="S63" s="1">
         <v>0.15</v>
       </c>
     </row>
@@ -4616,22 +4626,22 @@
       <c r="M64">
         <v>0.22</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="1">
         <v>0.19</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="1">
         <v>0.19</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="1">
         <v>0.27</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="1">
         <v>0.16</v>
       </c>
-      <c r="S64">
+      <c r="S64" s="1">
         <v>0.2</v>
       </c>
     </row>
@@ -4675,22 +4685,22 @@
       <c r="M65">
         <v>0.13</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="1">
         <v>0.08</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="1">
         <v>0.18</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="1">
         <v>0.09</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="1">
         <v>0.01</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="1">
         <v>0.03</v>
       </c>
     </row>
@@ -4734,22 +4744,22 @@
       <c r="M66">
         <v>0.24</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="1">
         <v>0.09</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="1">
         <v>0.08</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="1">
         <v>0.05</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="1">
         <v>0.01</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="1">
         <v>0.16</v>
       </c>
     </row>
@@ -4793,22 +4803,22 @@
       <c r="M67">
         <v>0.04</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="1">
         <v>0.2</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="1">
         <v>0.22</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" s="1">
         <v>0.21</v>
       </c>
-      <c r="R67">
+      <c r="R67" s="1">
         <v>0.17</v>
       </c>
-      <c r="S67">
+      <c r="S67" s="1">
         <v>0.22</v>
       </c>
     </row>
@@ -4852,22 +4862,22 @@
       <c r="M68">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="1">
         <v>0.09</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="1">
         <v>0.1</v>
       </c>
-      <c r="P68">
+      <c r="P68" s="1">
         <v>0.05</v>
       </c>
-      <c r="Q68">
+      <c r="Q68" s="1">
         <v>0.1</v>
       </c>
-      <c r="R68">
+      <c r="R68" s="1">
         <v>0.1</v>
       </c>
-      <c r="S68">
+      <c r="S68" s="1">
         <v>0.15</v>
       </c>
     </row>
@@ -4911,22 +4921,22 @@
       <c r="M69">
         <v>-0.31</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="1">
         <v>-0.05</v>
       </c>
-      <c r="P69">
+      <c r="P69" s="1">
         <v>0.03</v>
       </c>
-      <c r="Q69">
+      <c r="Q69" s="1">
         <v>0</v>
       </c>
-      <c r="R69">
+      <c r="R69" s="1">
         <v>-0.18</v>
       </c>
-      <c r="S69">
+      <c r="S69" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
@@ -4970,22 +4980,22 @@
       <c r="M70">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="1">
         <v>-0.03</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="1">
         <v>-0.04</v>
       </c>
-      <c r="P70">
+      <c r="P70" s="1">
         <v>-0.15</v>
       </c>
-      <c r="Q70">
+      <c r="Q70" s="1">
         <v>0.03</v>
       </c>
-      <c r="R70">
+      <c r="R70" s="1">
         <v>-0.05</v>
       </c>
-      <c r="S70">
+      <c r="S70" s="1">
         <v>-0.01</v>
       </c>
     </row>
@@ -5029,22 +5039,22 @@
       <c r="M71">
         <v>-0.24</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="1">
         <v>-0.11</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="1">
         <v>-0.1</v>
       </c>
-      <c r="P71">
+      <c r="P71" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="Q71">
+      <c r="Q71" s="1">
         <v>-0.12</v>
       </c>
-      <c r="R71">
+      <c r="R71" s="1">
         <v>-0.1</v>
       </c>
-      <c r="S71">
+      <c r="S71" s="1">
         <v>-0.11</v>
       </c>
     </row>
@@ -5088,22 +5098,22 @@
       <c r="M72">
         <v>-0.18</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="1">
         <v>-0.11</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="1">
         <v>-0.12</v>
       </c>
-      <c r="P72">
+      <c r="P72" s="1">
         <v>-0.11</v>
       </c>
-      <c r="Q72">
+      <c r="Q72" s="1">
         <v>-0.08</v>
       </c>
-      <c r="R72">
+      <c r="R72" s="1">
         <v>-0.18</v>
       </c>
-      <c r="S72">
+      <c r="S72" s="1">
         <v>-0.11</v>
       </c>
     </row>
@@ -5147,22 +5157,22 @@
       <c r="M73">
         <v>-0.22</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="1">
         <v>-0.18</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="1">
         <v>-0.17</v>
       </c>
-      <c r="P73">
+      <c r="P73" s="1">
         <v>-0.24</v>
       </c>
-      <c r="Q73">
+      <c r="Q73" s="1">
         <v>-0.13</v>
       </c>
-      <c r="R73">
+      <c r="R73" s="1">
         <v>-0.1</v>
       </c>
-      <c r="S73">
+      <c r="S73" s="1">
         <v>-0.22</v>
       </c>
     </row>
@@ -5206,22 +5216,22 @@
       <c r="M74">
         <v>0.16</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="1">
         <v>-0.1</v>
       </c>
-      <c r="P74">
+      <c r="P74" s="1">
         <v>-0.33</v>
       </c>
-      <c r="Q74">
+      <c r="Q74" s="1">
         <v>-0.12</v>
       </c>
-      <c r="R74">
+      <c r="R74" s="1">
         <v>-0.01</v>
       </c>
-      <c r="S74">
+      <c r="S74" s="1">
         <v>0.04</v>
       </c>
     </row>
@@ -5265,22 +5275,22 @@
       <c r="M75">
         <v>-0.02</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="1">
         <v>0.01</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="1">
         <v>0.03</v>
       </c>
-      <c r="P75">
+      <c r="P75" s="1">
         <v>0.13</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" s="1">
         <v>-0.03</v>
       </c>
-      <c r="R75">
+      <c r="R75" s="1">
         <v>0.02</v>
       </c>
-      <c r="S75">
+      <c r="S75" s="1">
         <v>-0.02</v>
       </c>
     </row>
@@ -5324,22 +5334,22 @@
       <c r="M76">
         <v>0.05</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="1">
         <v>0.08</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P76">
+      <c r="P76" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R76">
+      <c r="R76" s="1">
         <v>0.06</v>
       </c>
-      <c r="S76">
+      <c r="S76" s="1">
         <v>0.03</v>
       </c>
     </row>
@@ -5383,22 +5393,22 @@
       <c r="M77">
         <v>-0.18</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="1">
         <v>-0.13</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="1">
         <v>-0.11</v>
       </c>
-      <c r="P77">
+      <c r="P77" s="1">
         <v>-0.1</v>
       </c>
-      <c r="Q77">
+      <c r="Q77" s="1">
         <v>-0.16</v>
       </c>
-      <c r="R77">
+      <c r="R77" s="1">
         <v>-0.18</v>
       </c>
-      <c r="S77">
+      <c r="S77" s="1">
         <v>-0.01</v>
       </c>
     </row>
@@ -5442,22 +5452,22 @@
       <c r="M78">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="1">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="1">
         <v>-0.13</v>
       </c>
-      <c r="P78">
+      <c r="P78" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" s="1">
         <v>-0.25</v>
       </c>
-      <c r="R78">
+      <c r="R78" s="1">
         <v>-0.08</v>
       </c>
-      <c r="S78">
+      <c r="S78" s="1">
         <v>-0.14000000000000001</v>
       </c>
     </row>
@@ -5501,22 +5511,22 @@
       <c r="M79">
         <v>-0.06</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="1">
         <v>-0.19</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="1">
         <v>-0.21</v>
       </c>
-      <c r="P79">
+      <c r="P79" s="1">
         <v>-0.22</v>
       </c>
-      <c r="Q79">
+      <c r="Q79" s="1">
         <v>-0.26</v>
       </c>
-      <c r="R79">
+      <c r="R79" s="1">
         <v>-0.17</v>
       </c>
-      <c r="S79">
+      <c r="S79" s="1">
         <v>-0.19</v>
       </c>
     </row>
@@ -5560,22 +5570,22 @@
       <c r="M80">
         <v>0.15</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="1">
         <v>0.05</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="1">
         <v>0.03</v>
       </c>
-      <c r="P80">
+      <c r="P80" s="1">
         <v>-0.06</v>
       </c>
-      <c r="Q80">
+      <c r="Q80" s="1">
         <v>0.01</v>
       </c>
-      <c r="R80">
+      <c r="R80" s="1">
         <v>0.11</v>
       </c>
-      <c r="S80">
+      <c r="S80" s="1">
         <v>0.06</v>
       </c>
     </row>
@@ -5619,22 +5629,22 @@
       <c r="M81">
         <v>0.01</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="1">
         <v>0.06</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P81">
+      <c r="P81" s="1">
         <v>0.25</v>
       </c>
-      <c r="Q81">
+      <c r="Q81" s="1">
         <v>0.05</v>
       </c>
-      <c r="R81">
+      <c r="R81" s="1">
         <v>-0.03</v>
       </c>
-      <c r="S81">
+      <c r="S81" s="1">
         <v>0.01</v>
       </c>
     </row>
@@ -5678,22 +5688,22 @@
       <c r="M82">
         <v>-0.01</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="1">
         <v>0.03</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="1">
         <v>0.03</v>
       </c>
-      <c r="P82">
+      <c r="P82" s="1">
         <v>0.05</v>
       </c>
-      <c r="Q82">
+      <c r="Q82" s="1">
         <v>0.12</v>
       </c>
-      <c r="R82">
+      <c r="R82" s="1">
         <v>0.02</v>
       </c>
-      <c r="S82">
+      <c r="S82" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5737,22 +5747,22 @@
       <c r="M83">
         <v>0.18</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="1">
         <v>-0.03</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="1">
         <v>-0.04</v>
       </c>
-      <c r="P83">
+      <c r="P83" s="1">
         <v>0.04</v>
       </c>
-      <c r="Q83">
+      <c r="Q83" s="1">
         <v>-0.19</v>
       </c>
-      <c r="R83">
+      <c r="R83" s="1">
         <v>-0.02</v>
       </c>
-      <c r="S83">
+      <c r="S83" s="1">
         <v>0</v>
       </c>
     </row>
@@ -5796,22 +5806,22 @@
       <c r="M84">
         <v>-0.16</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="1">
         <v>0.06</v>
       </c>
-      <c r="O84">
+      <c r="O84" s="1">
         <v>0.09</v>
       </c>
-      <c r="P84">
+      <c r="P84" s="1">
         <v>0.15</v>
       </c>
-      <c r="Q84">
+      <c r="Q84" s="1">
         <v>0.11</v>
       </c>
-      <c r="R84">
+      <c r="R84" s="1">
         <v>0.04</v>
       </c>
-      <c r="S84">
+      <c r="S84" s="1">
         <v>0.04</v>
       </c>
     </row>
@@ -5855,22 +5865,22 @@
       <c r="M85">
         <v>-0.03</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="1">
         <v>0.03</v>
       </c>
-      <c r="O85">
+      <c r="O85" s="1">
         <v>0.02</v>
       </c>
-      <c r="P85">
+      <c r="P85" s="1">
         <v>0.01</v>
       </c>
-      <c r="Q85">
+      <c r="Q85" s="1">
         <v>0.03</v>
       </c>
-      <c r="R85">
+      <c r="R85" s="1">
         <v>0.01</v>
       </c>
-      <c r="S85">
+      <c r="S85" s="1">
         <v>0.02</v>
       </c>
     </row>
@@ -5914,22 +5924,22 @@
       <c r="M86">
         <v>-0.03</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="1">
         <v>0.05</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="1">
         <v>0.05</v>
       </c>
-      <c r="P86">
+      <c r="P86" s="1">
         <v>0.04</v>
       </c>
-      <c r="Q86">
+      <c r="Q86" s="1">
         <v>-0.09</v>
       </c>
-      <c r="R86">
+      <c r="R86" s="1">
         <v>0.11</v>
       </c>
-      <c r="S86">
+      <c r="S86" s="1">
         <v>0.16</v>
       </c>
     </row>
@@ -5973,22 +5983,22 @@
       <c r="M87">
         <v>-0.3</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="1">
         <v>-0.2</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="1">
         <v>-0.18</v>
       </c>
-      <c r="P87">
+      <c r="P87" s="1">
         <v>-0.08</v>
       </c>
-      <c r="Q87">
+      <c r="Q87" s="1">
         <v>-0.26</v>
       </c>
-      <c r="R87">
+      <c r="R87" s="1">
         <v>-0.1</v>
       </c>
-      <c r="S87">
+      <c r="S87" s="1">
         <v>-0.27</v>
       </c>
     </row>
@@ -6032,22 +6042,22 @@
       <c r="M88">
         <v>-0.08</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="1">
         <v>-0.11</v>
       </c>
-      <c r="O88">
+      <c r="O88" s="1">
         <v>-0.13</v>
       </c>
-      <c r="P88">
+      <c r="P88" s="1">
         <v>-0.18</v>
       </c>
-      <c r="Q88">
+      <c r="Q88" s="1">
         <v>-0.15</v>
       </c>
-      <c r="R88">
+      <c r="R88" s="1">
         <v>-0.09</v>
       </c>
-      <c r="S88">
+      <c r="S88" s="1">
         <v>-0.09</v>
       </c>
     </row>
@@ -6091,22 +6101,22 @@
       <c r="M89">
         <v>-0.03</v>
       </c>
-      <c r="N89">
+      <c r="N89" s="1">
         <v>-0.06</v>
       </c>
-      <c r="O89">
+      <c r="O89" s="1">
         <v>-0.06</v>
       </c>
-      <c r="P89">
+      <c r="P89" s="1">
         <v>-0.11</v>
       </c>
-      <c r="Q89">
+      <c r="Q89" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="R89">
+      <c r="R89" s="1">
         <v>0</v>
       </c>
-      <c r="S89">
+      <c r="S89" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
@@ -6150,22 +6160,22 @@
       <c r="M90">
         <v>-0.05</v>
       </c>
-      <c r="N90">
+      <c r="N90" s="1">
         <v>-0.02</v>
       </c>
-      <c r="O90">
+      <c r="O90" s="1">
         <v>-0.02</v>
       </c>
-      <c r="P90">
+      <c r="P90" s="1">
         <v>-0.1</v>
       </c>
-      <c r="Q90">
+      <c r="Q90" s="1">
         <v>0.04</v>
       </c>
-      <c r="R90">
+      <c r="R90" s="1">
         <v>-0.02</v>
       </c>
-      <c r="S90">
+      <c r="S90" s="1">
         <v>-0.01</v>
       </c>
     </row>
@@ -6209,22 +6219,22 @@
       <c r="M91">
         <v>-0.15</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="1">
         <v>-0.08</v>
       </c>
-      <c r="O91">
+      <c r="O91" s="1">
         <v>-0.08</v>
       </c>
-      <c r="P91">
+      <c r="P91" s="1">
         <v>-0.15</v>
       </c>
-      <c r="Q91">
+      <c r="Q91" s="1">
         <v>0</v>
       </c>
-      <c r="R91">
+      <c r="R91" s="1">
         <v>-0.1</v>
       </c>
-      <c r="S91">
+      <c r="S91" s="1">
         <v>-0.05</v>
       </c>
     </row>
@@ -6268,22 +6278,22 @@
       <c r="M92">
         <v>0.24</v>
       </c>
-      <c r="N92">
+      <c r="N92" s="1">
         <v>0.05</v>
       </c>
-      <c r="O92">
+      <c r="O92" s="1">
         <v>0.02</v>
       </c>
-      <c r="P92">
+      <c r="P92" s="1">
         <v>-0.15</v>
       </c>
-      <c r="Q92">
+      <c r="Q92" s="1">
         <v>0.12</v>
       </c>
-      <c r="R92">
+      <c r="R92" s="1">
         <v>0.01</v>
       </c>
-      <c r="S92">
+      <c r="S92" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -6327,22 +6337,22 @@
       <c r="M93">
         <v>-0.12</v>
       </c>
-      <c r="N93">
+      <c r="N93" s="1">
         <v>0.02</v>
       </c>
-      <c r="O93">
+      <c r="O93" s="1">
         <v>0.06</v>
       </c>
-      <c r="P93">
+      <c r="P93" s="1">
         <v>0.18</v>
       </c>
-      <c r="Q93">
+      <c r="Q93" s="1">
         <v>0.02</v>
       </c>
-      <c r="R93">
+      <c r="R93" s="1">
         <v>-0.04</v>
       </c>
-      <c r="S93">
+      <c r="S93" s="1">
         <v>0.05</v>
       </c>
     </row>
@@ -6386,22 +6396,22 @@
       <c r="M94">
         <v>-0.08</v>
       </c>
-      <c r="N94">
+      <c r="N94" s="1">
         <v>-0.08</v>
       </c>
-      <c r="O94">
+      <c r="O94" s="1">
         <v>-0.09</v>
       </c>
-      <c r="P94">
+      <c r="P94" s="1">
         <v>-0.1</v>
       </c>
-      <c r="Q94">
+      <c r="Q94" s="1">
         <v>-0.1</v>
       </c>
-      <c r="R94">
+      <c r="R94" s="1">
         <v>-0.08</v>
       </c>
-      <c r="S94">
+      <c r="S94" s="1">
         <v>-0.06</v>
       </c>
     </row>
@@ -6445,22 +6455,22 @@
       <c r="M95">
         <v>0.18</v>
       </c>
-      <c r="N95">
+      <c r="N95" s="1">
         <v>0.01</v>
       </c>
-      <c r="O95">
+      <c r="O95" s="1">
         <v>-0.01</v>
       </c>
-      <c r="P95">
+      <c r="P95" s="1">
         <v>-0.16</v>
       </c>
-      <c r="Q95">
+      <c r="Q95" s="1">
         <v>0</v>
       </c>
-      <c r="R95">
+      <c r="R95" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S95">
+      <c r="S95" s="1">
         <v>0.04</v>
       </c>
     </row>
@@ -6504,22 +6514,22 @@
       <c r="M96">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="N96">
+      <c r="N96" s="1">
         <v>0.16</v>
       </c>
-      <c r="O96">
+      <c r="O96" s="1">
         <v>0.18</v>
       </c>
-      <c r="P96">
+      <c r="P96" s="1">
         <v>0.26</v>
       </c>
-      <c r="Q96">
+      <c r="Q96" s="1">
         <v>0.26</v>
       </c>
-      <c r="R96">
+      <c r="R96" s="1">
         <v>0.12</v>
       </c>
-      <c r="S96">
+      <c r="S96" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -6563,22 +6573,22 @@
       <c r="M97">
         <v>-0.08</v>
       </c>
-      <c r="N97">
+      <c r="N97" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="O97">
+      <c r="O97" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="P97">
+      <c r="P97" s="1">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="Q97">
+      <c r="Q97" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="R97">
+      <c r="R97" s="1">
         <v>0.01</v>
       </c>
-      <c r="S97">
+      <c r="S97" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
@@ -6622,22 +6632,22 @@
       <c r="M98">
         <v>-0.17</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="1">
         <v>-0.01</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="1">
         <v>0</v>
       </c>
-      <c r="P98">
+      <c r="P98" s="1">
         <v>0.03</v>
       </c>
-      <c r="Q98">
+      <c r="Q98" s="1">
         <v>0.11</v>
       </c>
-      <c r="R98">
+      <c r="R98" s="1">
         <v>-0.06</v>
       </c>
-      <c r="S98">
+      <c r="S98" s="1">
         <v>-0.1</v>
       </c>
     </row>
@@ -6681,22 +6691,22 @@
       <c r="M99">
         <v>0.11</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="1">
         <v>-0.1</v>
       </c>
-      <c r="O99">
+      <c r="O99" s="1">
         <v>-0.12</v>
       </c>
-      <c r="P99">
+      <c r="P99" s="1">
         <v>-0.08</v>
       </c>
-      <c r="Q99">
+      <c r="Q99" s="1">
         <v>-0.16</v>
       </c>
-      <c r="R99">
+      <c r="R99" s="1">
         <v>-0.11</v>
       </c>
-      <c r="S99">
+      <c r="S99" s="1">
         <v>-0.12</v>
       </c>
     </row>
@@ -6740,22 +6750,22 @@
       <c r="M100">
         <v>0.03</v>
       </c>
-      <c r="N100">
+      <c r="N100" s="1">
         <v>0.18</v>
       </c>
-      <c r="O100">
+      <c r="O100" s="1">
         <v>0.19</v>
       </c>
-      <c r="P100">
+      <c r="P100" s="1">
         <v>0.17</v>
       </c>
-      <c r="Q100">
+      <c r="Q100" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="R100">
+      <c r="R100" s="1">
         <v>0.22</v>
       </c>
-      <c r="S100">
+      <c r="S100" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -6799,22 +6809,22 @@
       <c r="M101">
         <v>0.08</v>
       </c>
-      <c r="N101">
+      <c r="N101" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O101">
+      <c r="O101" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P101">
+      <c r="P101" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q101">
+      <c r="Q101" s="1">
         <v>0.15</v>
       </c>
-      <c r="R101">
+      <c r="R101" s="1">
         <v>-0.03</v>
       </c>
-      <c r="S101">
+      <c r="S101" s="1">
         <v>0.08</v>
       </c>
     </row>
@@ -6858,22 +6868,22 @@
       <c r="M102">
         <v>0.48</v>
       </c>
-      <c r="N102">
+      <c r="N102" s="1">
         <v>0.17</v>
       </c>
-      <c r="O102">
+      <c r="O102" s="1">
         <v>0.13</v>
       </c>
-      <c r="P102">
+      <c r="P102" s="1">
         <v>0.02</v>
       </c>
-      <c r="Q102">
+      <c r="Q102" s="1">
         <v>0.13</v>
       </c>
-      <c r="R102">
+      <c r="R102" s="1">
         <v>0.12</v>
       </c>
-      <c r="S102">
+      <c r="S102" s="1">
         <v>0.27</v>
       </c>
     </row>
@@ -6917,22 +6927,22 @@
       <c r="M103">
         <v>0.22</v>
       </c>
-      <c r="N103">
+      <c r="N103" s="1">
         <v>0.26</v>
       </c>
-      <c r="O103">
+      <c r="O103" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="P103">
+      <c r="P103" s="1">
         <v>0.39</v>
       </c>
-      <c r="Q103">
+      <c r="Q103" s="1">
         <v>0.32</v>
       </c>
-      <c r="R103">
+      <c r="R103" s="1">
         <v>0.21</v>
       </c>
-      <c r="S103">
+      <c r="S103" s="1">
         <v>0.21</v>
       </c>
     </row>
@@ -6976,22 +6986,22 @@
       <c r="M104">
         <v>0.41</v>
       </c>
-      <c r="N104">
+      <c r="N104" s="1">
         <v>0.32</v>
       </c>
-      <c r="O104">
+      <c r="O104" s="1">
         <v>0.31</v>
       </c>
-      <c r="P104">
+      <c r="P104" s="1">
         <v>0.39</v>
       </c>
-      <c r="Q104">
+      <c r="Q104" s="1">
         <v>0.35</v>
       </c>
-      <c r="R104">
+      <c r="R104" s="1">
         <v>0.32</v>
       </c>
-      <c r="S104">
+      <c r="S104" s="1">
         <v>0.17</v>
       </c>
     </row>
@@ -7035,22 +7045,22 @@
       <c r="M105">
         <v>0.43</v>
       </c>
-      <c r="N105">
+      <c r="N105" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="O105">
+      <c r="O105" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P105">
+      <c r="P105" s="1">
         <v>0.21</v>
       </c>
-      <c r="Q105">
+      <c r="Q105" s="1">
         <v>0.12</v>
       </c>
-      <c r="R105">
+      <c r="R105" s="1">
         <v>0.08</v>
       </c>
-      <c r="S105">
+      <c r="S105" s="1">
         <v>0.15</v>
       </c>
     </row>
@@ -7094,22 +7104,22 @@
       <c r="M106">
         <v>0.17</v>
       </c>
-      <c r="N106">
+      <c r="N106" s="1">
         <v>0.31</v>
       </c>
-      <c r="O106">
+      <c r="O106" s="1">
         <v>0.34</v>
       </c>
-      <c r="P106">
+      <c r="P106" s="1">
         <v>0.46</v>
       </c>
-      <c r="Q106">
+      <c r="Q106" s="1">
         <v>0.34</v>
       </c>
-      <c r="R106">
+      <c r="R106" s="1">
         <v>0.25</v>
       </c>
-      <c r="S106">
+      <c r="S106" s="1">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -7153,22 +7163,22 @@
       <c r="M107">
         <v>-0.04</v>
       </c>
-      <c r="N107">
+      <c r="N107" s="1">
         <v>0.16</v>
       </c>
-      <c r="O107">
+      <c r="O107" s="1">
         <v>0.18</v>
       </c>
-      <c r="P107">
+      <c r="P107" s="1">
         <v>0.21</v>
       </c>
-      <c r="Q107">
+      <c r="Q107" s="1">
         <v>0.22</v>
       </c>
-      <c r="R107">
+      <c r="R107" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S107">
+      <c r="S107" s="1">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -7212,22 +7222,22 @@
       <c r="M108">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N108">
+      <c r="N108" s="1">
         <v>0.12</v>
       </c>
-      <c r="O108">
+      <c r="O108" s="1">
         <v>0.1</v>
       </c>
-      <c r="P108">
+      <c r="P108" s="1">
         <v>0.05</v>
       </c>
-      <c r="Q108">
+      <c r="Q108" s="1">
         <v>0.15</v>
       </c>
-      <c r="R108">
+      <c r="R108" s="1">
         <v>0.12</v>
       </c>
-      <c r="S108">
+      <c r="S108" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -7271,22 +7281,22 @@
       <c r="M109">
         <v>0.13</v>
       </c>
-      <c r="N109">
+      <c r="N109" s="1">
         <v>0.18</v>
       </c>
-      <c r="O109">
+      <c r="O109" s="1">
         <v>0.18</v>
       </c>
-      <c r="P109">
+      <c r="P109" s="1">
         <v>0.26</v>
       </c>
-      <c r="Q109">
+      <c r="Q109" s="1">
         <v>0.25</v>
       </c>
-      <c r="R109">
+      <c r="R109" s="1">
         <v>0.13</v>
       </c>
-      <c r="S109">
+      <c r="S109" s="1">
         <v>0.1</v>
       </c>
     </row>
@@ -7330,22 +7340,22 @@
       <c r="M110">
         <v>0.46</v>
       </c>
-      <c r="N110">
+      <c r="N110" s="1">
         <v>0.32</v>
       </c>
-      <c r="O110">
+      <c r="O110" s="1">
         <v>0.3</v>
       </c>
-      <c r="P110">
+      <c r="P110" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Q110">
+      <c r="Q110" s="1">
         <v>0.23</v>
       </c>
-      <c r="R110">
+      <c r="R110" s="1">
         <v>0.33</v>
       </c>
-      <c r="S110">
+      <c r="S110" s="1">
         <v>0.32</v>
       </c>
     </row>
@@ -7389,22 +7399,22 @@
       <c r="M111">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N111">
+      <c r="N111" s="1">
         <v>0.39</v>
       </c>
-      <c r="O111">
+      <c r="O111" s="1">
         <v>0.4</v>
       </c>
-      <c r="P111">
+      <c r="P111" s="1">
         <v>0.49</v>
       </c>
-      <c r="Q111">
+      <c r="Q111" s="1">
         <v>0.46</v>
       </c>
-      <c r="R111">
+      <c r="R111" s="1">
         <v>0.38</v>
       </c>
-      <c r="S111">
+      <c r="S111" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -7448,22 +7458,22 @@
       <c r="M112">
         <v>0.37</v>
       </c>
-      <c r="N112">
+      <c r="N112" s="1">
         <v>0.27</v>
       </c>
-      <c r="O112">
+      <c r="O112" s="1">
         <v>0.27</v>
       </c>
-      <c r="P112">
+      <c r="P112" s="1">
         <v>0.24</v>
       </c>
-      <c r="Q112">
+      <c r="Q112" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="R112">
+      <c r="R112" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="S112">
+      <c r="S112" s="1">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -7507,22 +7517,22 @@
       <c r="M113">
         <v>0.41</v>
       </c>
-      <c r="N113">
+      <c r="N113" s="1">
         <v>0.45</v>
       </c>
-      <c r="O113">
+      <c r="O113" s="1">
         <v>0.45</v>
       </c>
-      <c r="P113">
+      <c r="P113" s="1">
         <v>0.41</v>
       </c>
-      <c r="Q113">
+      <c r="Q113" s="1">
         <v>0.61</v>
       </c>
-      <c r="R113">
+      <c r="R113" s="1">
         <v>0.39</v>
       </c>
-      <c r="S113">
+      <c r="S113" s="1">
         <v>0.38</v>
       </c>
     </row>
@@ -7566,22 +7576,22 @@
       <c r="M114">
         <v>0.32</v>
       </c>
-      <c r="N114">
+      <c r="N114" s="1">
         <v>0.41</v>
       </c>
-      <c r="O114">
+      <c r="O114" s="1">
         <v>0.41</v>
       </c>
-      <c r="P114">
+      <c r="P114" s="1">
         <v>0.44</v>
       </c>
-      <c r="Q114">
+      <c r="Q114" s="1">
         <v>0.4</v>
       </c>
-      <c r="R114">
+      <c r="R114" s="1">
         <v>0.47</v>
       </c>
-      <c r="S114">
+      <c r="S114" s="1">
         <v>0.34</v>
       </c>
     </row>
@@ -7625,22 +7635,22 @@
       <c r="M115">
         <v>0.21</v>
       </c>
-      <c r="N115">
+      <c r="N115" s="1">
         <v>0.22</v>
       </c>
-      <c r="O115">
+      <c r="O115" s="1">
         <v>0.23</v>
       </c>
-      <c r="P115">
+      <c r="P115" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q115">
+      <c r="Q115" s="1">
         <v>0.36</v>
       </c>
-      <c r="R115">
+      <c r="R115" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="S115">
+      <c r="S115" s="1">
         <v>0.03</v>
       </c>
     </row>
@@ -7684,22 +7694,22 @@
       <c r="M116">
         <v>0.18</v>
       </c>
-      <c r="N116">
+      <c r="N116" s="1">
         <v>0.23</v>
       </c>
-      <c r="O116">
+      <c r="O116" s="1">
         <v>0.24</v>
       </c>
-      <c r="P116">
+      <c r="P116" s="1">
         <v>0.31</v>
       </c>
-      <c r="Q116">
+      <c r="Q116" s="1">
         <v>0.31</v>
       </c>
-      <c r="R116">
+      <c r="R116" s="1">
         <v>0.2</v>
       </c>
-      <c r="S116">
+      <c r="S116" s="1">
         <v>0.13</v>
       </c>
     </row>
@@ -7743,22 +7753,22 @@
       <c r="M117">
         <v>0.38</v>
       </c>
-      <c r="N117">
+      <c r="N117" s="1">
         <v>0.32</v>
       </c>
-      <c r="O117">
+      <c r="O117" s="1">
         <v>0.3</v>
       </c>
-      <c r="P117">
+      <c r="P117" s="1">
         <v>0.16</v>
       </c>
-      <c r="Q117">
+      <c r="Q117" s="1">
         <v>0.33</v>
       </c>
-      <c r="R117">
+      <c r="R117" s="1">
         <v>0.32</v>
       </c>
-      <c r="S117">
+      <c r="S117" s="1">
         <v>0.4</v>
       </c>
     </row>
@@ -7802,22 +7812,22 @@
       <c r="M118">
         <v>0.26</v>
       </c>
-      <c r="N118">
+      <c r="N118" s="1">
         <v>0.45</v>
       </c>
-      <c r="O118">
+      <c r="O118" s="1">
         <v>0.46</v>
       </c>
-      <c r="P118">
+      <c r="P118" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q118">
+      <c r="Q118" s="1">
         <v>0.4</v>
       </c>
-      <c r="R118">
+      <c r="R118" s="1">
         <v>0.45</v>
       </c>
-      <c r="S118">
+      <c r="S118" s="1">
         <v>0.42</v>
       </c>
     </row>
@@ -7861,22 +7871,22 @@
       <c r="M119">
         <v>0.37</v>
       </c>
-      <c r="N119">
+      <c r="N119" s="1">
         <v>0.33</v>
       </c>
-      <c r="O119">
+      <c r="O119" s="1">
         <v>0.32</v>
       </c>
-      <c r="P119">
+      <c r="P119" s="1">
         <v>0.32</v>
       </c>
-      <c r="Q119">
+      <c r="Q119" s="1">
         <v>0.31</v>
       </c>
-      <c r="R119">
+      <c r="R119" s="1">
         <v>0.37</v>
       </c>
-      <c r="S119">
+      <c r="S119" s="1">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -7920,22 +7930,22 @@
       <c r="M120">
         <v>0.59</v>
       </c>
-      <c r="N120">
+      <c r="N120" s="1">
         <v>0.46</v>
       </c>
-      <c r="O120">
+      <c r="O120" s="1">
         <v>0.44</v>
       </c>
-      <c r="P120">
+      <c r="P120" s="1">
         <v>0.36</v>
       </c>
-      <c r="Q120">
+      <c r="Q120" s="1">
         <v>0.4</v>
       </c>
-      <c r="R120">
+      <c r="R120" s="1">
         <v>0.43</v>
       </c>
-      <c r="S120">
+      <c r="S120" s="1">
         <v>0.59</v>
       </c>
     </row>
@@ -7979,22 +7989,22 @@
       <c r="M121">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N121">
+      <c r="N121" s="1">
         <v>0.61</v>
       </c>
-      <c r="O121">
+      <c r="O121" s="1">
         <v>0.61</v>
       </c>
-      <c r="P121">
+      <c r="P121" s="1">
         <v>0.68</v>
       </c>
-      <c r="Q121">
+      <c r="Q121" s="1">
         <v>0.65</v>
       </c>
-      <c r="R121">
+      <c r="R121" s="1">
         <v>0.69</v>
       </c>
-      <c r="S121">
+      <c r="S121" s="1">
         <v>0.42</v>
       </c>
     </row>
@@ -8038,22 +8048,22 @@
       <c r="M122">
         <v>0.41</v>
       </c>
-      <c r="N122">
+      <c r="N122" s="1">
         <v>0.38</v>
       </c>
-      <c r="O122">
+      <c r="O122" s="1">
         <v>0.4</v>
       </c>
-      <c r="P122">
+      <c r="P122" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q122">
+      <c r="Q122" s="1">
         <v>0.3</v>
       </c>
-      <c r="R122">
+      <c r="R122" s="1">
         <v>0.35</v>
       </c>
-      <c r="S122">
+      <c r="S122" s="1">
         <v>0.36</v>
       </c>
     </row>
@@ -8097,22 +8107,22 @@
       <c r="M123">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N123">
+      <c r="N123" s="1">
         <v>0.39</v>
       </c>
-      <c r="O123">
+      <c r="O123" s="1">
         <v>0.4</v>
       </c>
-      <c r="P123">
+      <c r="P123" s="1">
         <v>0.41</v>
       </c>
-      <c r="Q123">
+      <c r="Q123" s="1">
         <v>0.49</v>
       </c>
-      <c r="R123">
+      <c r="R123" s="1">
         <v>0.4</v>
       </c>
-      <c r="S123">
+      <c r="S123" s="1">
         <v>0.32</v>
       </c>
     </row>
@@ -8156,22 +8166,22 @@
       <c r="M124">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N124">
+      <c r="N124" s="1">
         <v>0.54</v>
       </c>
-      <c r="O124">
+      <c r="O124" s="1">
         <v>0.51</v>
       </c>
-      <c r="P124">
+      <c r="P124" s="1">
         <v>0.39</v>
       </c>
-      <c r="Q124">
+      <c r="Q124" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="R124">
+      <c r="R124" s="1">
         <v>0.53</v>
       </c>
-      <c r="S124">
+      <c r="S124" s="1">
         <v>0.57999999999999996</v>
       </c>
     </row>
@@ -8215,22 +8225,22 @@
       <c r="M125">
         <v>0.44</v>
       </c>
-      <c r="N125">
+      <c r="N125" s="1">
         <v>0.63</v>
       </c>
-      <c r="O125">
+      <c r="O125" s="1">
         <v>0.64</v>
       </c>
-      <c r="P125">
+      <c r="P125" s="1">
         <v>0.71</v>
       </c>
-      <c r="Q125">
+      <c r="Q125" s="1">
         <v>0.7</v>
       </c>
-      <c r="R125">
+      <c r="R125" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="S125">
+      <c r="S125" s="1">
         <v>0.57999999999999996</v>
       </c>
     </row>
@@ -8274,22 +8284,22 @@
       <c r="M126">
         <v>0.75</v>
       </c>
-      <c r="N126">
+      <c r="N126" s="1">
         <v>0.62</v>
       </c>
-      <c r="O126">
+      <c r="O126" s="1">
         <v>0.59</v>
       </c>
-      <c r="P126">
+      <c r="P126" s="1">
         <v>0.59</v>
       </c>
-      <c r="Q126">
+      <c r="Q126" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="R126">
+      <c r="R126" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="S126">
+      <c r="S126" s="1">
         <v>0.62</v>
       </c>
     </row>
@@ -8333,22 +8343,22 @@
       <c r="M127">
         <v>0.51</v>
       </c>
-      <c r="N127">
+      <c r="N127" s="1">
         <v>0.53</v>
       </c>
-      <c r="O127">
+      <c r="O127" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P127">
+      <c r="P127" s="1">
         <v>0.68</v>
       </c>
-      <c r="Q127">
+      <c r="Q127" s="1">
         <v>0.54</v>
       </c>
-      <c r="R127">
+      <c r="R127" s="1">
         <v>0.39</v>
       </c>
-      <c r="S127">
+      <c r="S127" s="1">
         <v>0.61</v>
       </c>
     </row>
@@ -8392,22 +8402,22 @@
       <c r="M128">
         <v>0.68</v>
       </c>
-      <c r="N128">
+      <c r="N128" s="1">
         <v>0.68</v>
       </c>
-      <c r="O128">
+      <c r="O128" s="1">
         <v>0.66</v>
       </c>
-      <c r="P128">
+      <c r="P128" s="1">
         <v>0.62</v>
       </c>
-      <c r="Q128">
+      <c r="Q128" s="1">
         <v>0.68</v>
       </c>
-      <c r="R128">
+      <c r="R128" s="1">
         <v>0.62</v>
       </c>
-      <c r="S128">
+      <c r="S128" s="1">
         <v>0.73</v>
       </c>
     </row>
@@ -8451,22 +8461,22 @@
       <c r="M129">
         <v>0.79</v>
       </c>
-      <c r="N129">
+      <c r="N129" s="1">
         <v>0.64</v>
       </c>
-      <c r="O129">
+      <c r="O129" s="1">
         <v>0.63</v>
       </c>
-      <c r="P129">
+      <c r="P129" s="1">
         <v>0.66</v>
       </c>
-      <c r="Q129">
+      <c r="Q129" s="1">
         <v>0.53</v>
       </c>
-      <c r="R129">
+      <c r="R129" s="1">
         <v>0.63</v>
       </c>
-      <c r="S129">
+      <c r="S129" s="1">
         <v>0.69</v>
       </c>
     </row>
@@ -8510,22 +8520,22 @@
       <c r="M130">
         <v>0.49</v>
       </c>
-      <c r="N130">
+      <c r="N130" s="1">
         <v>0.66</v>
       </c>
-      <c r="O130">
+      <c r="O130" s="1">
         <v>0.69</v>
       </c>
-      <c r="P130">
+      <c r="P130" s="1">
         <v>0.84</v>
       </c>
-      <c r="Q130">
+      <c r="Q130" s="1">
         <v>0.73</v>
       </c>
-      <c r="R130">
+      <c r="R130" s="1">
         <v>0.6</v>
       </c>
-      <c r="S130">
+      <c r="S130" s="1">
         <v>0.59</v>
       </c>
     </row>
@@ -8569,22 +8579,22 @@
       <c r="M131">
         <v>0.54</v>
       </c>
-      <c r="N131">
+      <c r="N131" s="1">
         <v>0.54</v>
       </c>
-      <c r="O131">
+      <c r="O131" s="1">
         <v>0.54</v>
       </c>
-      <c r="P131">
+      <c r="P131" s="1">
         <v>0.39</v>
       </c>
-      <c r="Q131">
+      <c r="Q131" s="1">
         <v>0.59</v>
       </c>
-      <c r="R131">
+      <c r="R131" s="1">
         <v>0.52</v>
       </c>
-      <c r="S131">
+      <c r="S131" s="1">
         <v>0.66</v>
       </c>
     </row>
@@ -8628,22 +8638,22 @@
       <c r="M132">
         <v>0.68</v>
       </c>
-      <c r="N132">
+      <c r="N132" s="1">
         <v>0.66</v>
       </c>
-      <c r="O132">
+      <c r="O132" s="1">
         <v>0.64</v>
       </c>
-      <c r="P132">
+      <c r="P132" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q132">
+      <c r="Q132" s="1">
         <v>0.6</v>
       </c>
-      <c r="R132">
+      <c r="R132" s="1">
         <v>0.69</v>
       </c>
-      <c r="S132">
+      <c r="S132" s="1">
         <v>0.72</v>
       </c>
     </row>
@@ -8687,22 +8697,22 @@
       <c r="M133">
         <v>0.45</v>
       </c>
-      <c r="N133">
+      <c r="N133" s="1">
         <v>0.72</v>
       </c>
-      <c r="O133">
+      <c r="O133" s="1">
         <v>0.74</v>
       </c>
-      <c r="P133">
+      <c r="P133" s="1">
         <v>0.75</v>
       </c>
-      <c r="Q133">
+      <c r="Q133" s="1">
         <v>0.84</v>
       </c>
-      <c r="R133">
+      <c r="R133" s="1">
         <v>0.65</v>
       </c>
-      <c r="S133">
+      <c r="S133" s="1">
         <v>0.71</v>
       </c>
     </row>
@@ -8746,22 +8756,22 @@
       <c r="M134">
         <v>0.6</v>
       </c>
-      <c r="N134">
+      <c r="N134" s="1">
         <v>0.61</v>
       </c>
-      <c r="O134">
+      <c r="O134" s="1">
         <v>0.6</v>
       </c>
-      <c r="P134">
+      <c r="P134" s="1">
         <v>0.48</v>
       </c>
-      <c r="Q134">
+      <c r="Q134" s="1">
         <v>0.61</v>
       </c>
-      <c r="R134">
+      <c r="R134" s="1">
         <v>0.69</v>
       </c>
-      <c r="S134">
+      <c r="S134" s="1">
         <v>0.6</v>
       </c>
     </row>
@@ -8805,22 +8815,22 @@
       <c r="M135">
         <v>0.53</v>
       </c>
-      <c r="N135">
+      <c r="N135" s="1">
         <v>0.65</v>
       </c>
-      <c r="O135">
+      <c r="O135" s="1">
         <v>0.65</v>
       </c>
-      <c r="P135">
+      <c r="P135" s="1">
         <v>0.53</v>
       </c>
-      <c r="Q135">
+      <c r="Q135" s="1">
         <v>0.7</v>
       </c>
-      <c r="R135">
+      <c r="R135" s="1">
         <v>0.63</v>
       </c>
-      <c r="S135">
+      <c r="S135" s="1">
         <v>0.77</v>
       </c>
     </row>
@@ -8864,22 +8874,22 @@
       <c r="M136">
         <v>0.7</v>
       </c>
-      <c r="N136">
+      <c r="N136" s="1">
         <v>0.68</v>
       </c>
-      <c r="O136">
+      <c r="O136" s="1">
         <v>0.66</v>
       </c>
-      <c r="P136">
+      <c r="P136" s="1">
         <v>0.62</v>
       </c>
-      <c r="Q136">
+      <c r="Q136" s="1">
         <v>0.61</v>
       </c>
-      <c r="R136">
+      <c r="R136" s="1">
         <v>0.66</v>
       </c>
-      <c r="S136">
+      <c r="S136" s="1">
         <v>0.77</v>
       </c>
     </row>
@@ -8923,22 +8933,22 @@
       <c r="M137">
         <v>0.79</v>
       </c>
-      <c r="N137">
+      <c r="N137" s="1">
         <v>0.75</v>
       </c>
-      <c r="O137">
+      <c r="O137" s="1">
         <v>0.74</v>
       </c>
-      <c r="P137">
+      <c r="P137" s="1">
         <v>0.67</v>
       </c>
-      <c r="Q137">
+      <c r="Q137" s="1">
         <v>0.81</v>
       </c>
-      <c r="R137">
+      <c r="R137" s="1">
         <v>0.69</v>
       </c>
-      <c r="S137">
+      <c r="S137" s="1">
         <v>0.78</v>
       </c>
     </row>
@@ -8982,22 +8992,22 @@
       <c r="M138">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N138">
+      <c r="N138" s="1">
         <v>0.9</v>
       </c>
-      <c r="O138">
+      <c r="O138" s="1">
         <v>0.87</v>
       </c>
-      <c r="P138">
+      <c r="P138" s="1">
         <v>0.85</v>
       </c>
-      <c r="Q138">
+      <c r="Q138" s="1">
         <v>0.84</v>
       </c>
-      <c r="R138">
+      <c r="R138" s="1">
         <v>0.78</v>
       </c>
-      <c r="S138">
+      <c r="S138" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9041,22 +9051,22 @@
       <c r="M139">
         <v>0.87</v>
       </c>
-      <c r="N139">
+      <c r="N139" s="1">
         <v>1.02</v>
       </c>
-      <c r="O139">
+      <c r="O139" s="1">
         <v>1.04</v>
       </c>
-      <c r="P139">
+      <c r="P139" s="1">
         <v>1.23</v>
       </c>
-      <c r="Q139">
+      <c r="Q139" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="R139">
+      <c r="R139" s="1">
         <v>0.89</v>
       </c>
-      <c r="S139">
+      <c r="S139" s="1">
         <v>0.9</v>
       </c>
     </row>
@@ -9100,22 +9110,22 @@
       <c r="M140">
         <v>0.94</v>
       </c>
-      <c r="N140">
+      <c r="N140" s="1">
         <v>0.92</v>
       </c>
-      <c r="O140">
+      <c r="O140" s="1">
         <v>0.92</v>
       </c>
-      <c r="P140">
+      <c r="P140" s="1">
         <v>1.01</v>
       </c>
-      <c r="Q140">
+      <c r="Q140" s="1">
         <v>1.01</v>
       </c>
-      <c r="R140">
+      <c r="R140" s="1">
         <v>0.8</v>
       </c>
-      <c r="S140">
+      <c r="S140" s="1">
         <v>0.85</v>
       </c>
     </row>
@@ -9159,22 +9169,22 @@
       <c r="M141">
         <v>0.92</v>
       </c>
-      <c r="N141">
+      <c r="N141" s="1">
         <v>0.85</v>
       </c>
-      <c r="O141">
+      <c r="O141" s="1">
         <v>0.85</v>
       </c>
-      <c r="P141">
+      <c r="P141" s="1">
         <v>0.87</v>
       </c>
-      <c r="Q141">
+      <c r="Q141" s="1">
         <v>0.87</v>
       </c>
-      <c r="R141">
+      <c r="R141" s="1">
         <v>0.79</v>
       </c>
-      <c r="S141">
+      <c r="S141" s="1">
         <v>0.88</v>
       </c>
     </row>
@@ -9218,22 +9228,22 @@
       <c r="M142">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N142">
+      <c r="N142" s="1">
         <v>0.98</v>
       </c>
-      <c r="O142">
+      <c r="O142" s="1">
         <v>0.96</v>
       </c>
-      <c r="P142">
+      <c r="P142" s="1">
         <v>0.93</v>
       </c>
-      <c r="Q142">
+      <c r="Q142" s="1">
         <v>1.01</v>
       </c>
-      <c r="R142">
+      <c r="R142" s="1">
         <v>0.93</v>
       </c>
-      <c r="S142">
+      <c r="S142" s="1">
         <v>0.98</v>
       </c>
     </row>
@@ -9277,22 +9287,22 @@
       <c r="M143">
         <v>0.82</v>
       </c>
-      <c r="N143">
+      <c r="N143" s="1">
         <v>1.02</v>
       </c>
-      <c r="O143">
+      <c r="O143" s="1">
         <v>1.04</v>
       </c>
-      <c r="P143">
+      <c r="P143" s="1">
         <v>1.17</v>
       </c>
-      <c r="Q143">
+      <c r="Q143" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="R143">
+      <c r="R143" s="1">
         <v>0.9</v>
       </c>
-      <c r="S143">
+      <c r="S143" s="1">
         <v>1</v>
       </c>
     </row>
@@ -9336,22 +9346,22 @@
       <c r="M144">
         <v>0.86</v>
       </c>
-      <c r="N144">
+      <c r="N144" s="1">
         <v>0.85</v>
       </c>
-      <c r="O144">
+      <c r="O144" s="1">
         <v>0.85</v>
       </c>
-      <c r="P144">
+      <c r="P144" s="1">
         <v>0.76</v>
       </c>
-      <c r="Q144">
+      <c r="Q144" s="1">
         <v>0.81</v>
       </c>
-      <c r="R144">
+      <c r="R144" s="1">
         <v>0.86</v>
       </c>
-      <c r="S144">
+      <c r="S144" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -9395,22 +9405,22 @@
       <c r="M145" t="s">
         <v>20</v>
       </c>
-      <c r="N145" t="s">
+      <c r="N145" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O145" t="s">
+      <c r="O145" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P145">
+      <c r="P145" s="1">
         <v>0.89</v>
       </c>
-      <c r="Q145" t="s">
+      <c r="Q145" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R145" t="s">
+      <c r="R145" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S145" t="s">
+      <c r="S145" s="1" t="s">
         <v>20</v>
       </c>
     </row>
